--- a/Exercise-DataAnalysis-Course.xlsx
+++ b/Exercise-DataAnalysis-Course.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="33540" yWindow="600" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="19540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="72">
   <si>
     <t>Player</t>
   </si>
@@ -192,9 +192,6 @@
     <t>Most Wickets by "Umar Gul" =</t>
   </si>
   <si>
-    <t xml:space="preserve">Wickets in Highest Overs Bowled in a match = </t>
-  </si>
-  <si>
     <t xml:space="preserve">Wickets in Highest Runs given in a match = </t>
   </si>
   <si>
@@ -202,13 +199,49 @@
   </si>
   <si>
     <t xml:space="preserve">Stricke Rate (SR) in lowest overs in match = </t>
+  </si>
+  <si>
+    <t>Description of Problem</t>
+  </si>
+  <si>
+    <t>Get the Max value of 'Wkts' column</t>
+  </si>
+  <si>
+    <t>Get the Max value of 'Overs' column</t>
+  </si>
+  <si>
+    <t>Get the Min Value of 'SR' column</t>
+  </si>
+  <si>
+    <t>Get the Max Value of 'Runs' Column</t>
+  </si>
+  <si>
+    <t>Get the Max Value of 'Econ' column</t>
+  </si>
+  <si>
+    <t>Get the Min Value if 'Ave' Column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get the Value of Wickets for Umar Gul, the name of bowler. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wickets in Max Overs Bowled in a match = </t>
+  </si>
+  <si>
+    <t>Find the no of wickets in the match where highest overs were bowled</t>
+  </si>
+  <si>
+    <t>Find the no of wickets in the match where highest runs were scored</t>
+  </si>
+  <si>
+    <t>Find the SR in the match where lowed overs were scored</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -264,6 +297,22 @@
       <sz val="14"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -333,11 +382,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -348,10 +403,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -366,16 +417,88 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="10">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1" descr="escending">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="sort by wickets taken"/>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2895600" y="393700"/>
+          <a:ext cx="127000" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -699,11 +822,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -717,32 +840,33 @@
     <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.5" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="3.5" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="39.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.1640625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="57.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31" thickBot="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:16" ht="31" thickBot="1">
+      <c r="A1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-    </row>
-    <row r="2" spans="1:15" ht="19" thickTop="1">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+    </row>
+    <row r="2" spans="1:16" ht="19" thickTop="1">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -779,11 +903,14 @@
       <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="N2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -820,10 +947,10 @@
       <c r="L3">
         <v>21615</v>
       </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="N3" s="4"/>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -860,15 +987,18 @@
       <c r="L4">
         <v>36671</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="5">
         <f>MAX(F3:F52)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -905,15 +1035,18 @@
       <c r="L5">
         <v>40675</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="6">
         <f>MAX(B3:B52)</f>
         <v>101</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -950,15 +1083,18 @@
       <c r="L6">
         <v>32235</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="5">
         <f>MIN(I3:I52)</f>
         <v>20.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -995,15 +1131,18 @@
       <c r="L7">
         <v>35751</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="5">
         <f>MAX(E3:E52)</f>
         <v>231</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1040,10 +1179,10 @@
       <c r="L8">
         <v>35770</v>
       </c>
-      <c r="N8" s="10"/>
-      <c r="O8" s="7"/>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="N8" s="8"/>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1080,15 +1219,18 @@
       <c r="L9">
         <v>33213</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="N9" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="5">
         <f>MAX(G3:G52)</f>
         <v>3.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1125,15 +1267,18 @@
       <c r="L10">
         <v>33192</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="N10" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="5">
         <f>MIN(H:H)</f>
         <v>8.33</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1170,10 +1315,10 @@
       <c r="L11">
         <v>34090</v>
       </c>
-      <c r="N11" s="6"/>
-      <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="N11" s="4"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1210,15 +1355,18 @@
       <c r="L12">
         <v>32247</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="N12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="5">
         <f>VLOOKUP("Umar Gul", A3:I15,6,FALSE)</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1255,15 +1403,18 @@
       <c r="L13">
         <v>39032</v>
       </c>
-      <c r="N13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="O13" s="7">
+      <c r="N13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O13" s="5">
         <f>VLOOKUP(MAX(B1:B52),B2:I52,5,FALSE)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1300,15 +1451,18 @@
       <c r="L14">
         <v>31736</v>
       </c>
-      <c r="N14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="O14" s="7">
+      <c r="N14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O14" s="5">
         <f>VLOOKUP(MAX(E2:E52),E3:I53,2,FALSE)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1345,15 +1499,18 @@
       <c r="L15">
         <v>28216</v>
       </c>
-      <c r="N15" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="O15" s="7">
+      <c r="N15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O15" s="5">
         <f>VLOOKUP(MIN(B3:B52),B3:I54,7,FALSE)</f>
         <v>10.57</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1510,7 +1667,7 @@
       <c r="L19">
         <v>29563</v>
       </c>
-      <c r="N19" s="9"/>
+      <c r="N19" s="7"/>
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15">
@@ -2790,7 +2947,7 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
